--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.535</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.673</v>
+        <v>17.771</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.698</v>
+        <v>-0.658</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.836</v>
+        <v>22.57</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.193</v>
+        <v>1.471</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.79846575522863</v>
+        <v>15.9396439058502</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.12414603035594</v>
+        <v>17.64951539703509</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.16475918130989</v>
+        <v>17.46114044491187</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.787115282952531</v>
+        <v>7.127787384995539</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.46676219957356</v>
+        <v>18.84324308301238</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.37695590589283</v>
+        <v>22.3954831185825</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.464896335503568</v>
+        <v>10.12001434126269</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.54068193176699</v>
+        <v>26.79866476367142</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.73940941963166</v>
+        <v>27.70519652177236</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.15695182341916</v>
+        <v>25.70470646791441</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.11986879384739</v>
+        <v>30.3539387782584</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.12284486925804</v>
+        <v>31.61248036215684</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.154149592098</v>
+        <v>14.05088395924244</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.57875565085496</v>
+        <v>23.55285529155512</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.99643098185598</v>
+        <v>25.69988519496776</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.90862166158567</v>
+        <v>16.23991639852394</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.87847254635206</v>
+        <v>33.60397444584031</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.57416096711759</v>
+        <v>41.52639882686499</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.214474063643021</v>
+        <v>7.080254245487037</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.32403363375975</v>
+        <v>27.73514778078001</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.00921037074572</v>
+        <v>40.71261387292029</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.173016523712878</v>
+        <v>7.811391915861993</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43.96865913368846</v>
+        <v>46.2183938509649</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>67.43991076721233</v>
+        <v>66.45507970398295</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47.41881213743159</v>
+        <v>47.57442820570053</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.00082589820429</v>
+        <v>58.42733227054779</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>67.39220401867395</v>
+        <v>67.04675654110719</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.09296552549862</v>
+        <v>15.10885570498865</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>62.03330498640673</v>
+        <v>62.97891029066857</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>72.83287256157492</v>
+        <v>71.736314721111</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.05042184062516</v>
+        <v>24.04252411405822</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.51235437130963</v>
+        <v>43.70192079737366</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.37741911717855</v>
+        <v>48.56415259647127</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.035168150421317</v>
+        <v>8.6111920459918</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.38521259807192</v>
+        <v>35.50242205339147</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.92838189900547</v>
+        <v>49.67733684136805</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.268800441831</v>
+        <v>14.21189168691442</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>65.84251653677741</v>
+        <v>65.4061633717907</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>72.95625413224117</v>
+        <v>71.46451852884277</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>72.05009917023024</v>
+        <v>70.4629195677395</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>81.91899530241606</v>
+        <v>80.23604022297502</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87.38931439380258</v>
+        <v>85.59216206464893</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.66609014221346</v>
+        <v>29.28889417658564</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>84.6607570161474</v>
+        <v>82.6684687147829</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>86.20597240795991</v>
+        <v>84.49896648693692</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.58747840992865</v>
+        <v>10.26856204404152</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>38.77624470367743</v>
+        <v>40.22430795922139</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.95722600182635</v>
+        <v>42.39188097078562</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.92917167271348</v>
+        <v>6.905751992132828</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.32842569387057</v>
+        <v>41.8853114034043</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.13159946421077</v>
+        <v>47.26404168777983</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.024067359032557</v>
+        <v>7.442198129830292</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>63.70473328179463</v>
+        <v>62.53439920736566</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.63320997232809</v>
+        <v>62.21986171377593</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.2677097903653</v>
+        <v>55.99992054365988</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.46858346912505</v>
+        <v>59.68963513421831</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.07992969504124</v>
+        <v>60.54621465738882</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.39662858666987</v>
+        <v>11.35134062715946</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>58.72395644589092</v>
+        <v>56.98966475555764</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>64.36592770176847</v>
+        <v>62.36186440504797</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.59988748884742</v>
+        <v>11.16788696798552</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.62099580917437</v>
+        <v>39.39838967783613</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.36241055799128</v>
+        <v>43.79748447922104</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.197239920525327</v>
+        <v>6.899670690405223</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.54895626589479</v>
+        <v>31.26340619514093</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.51193346259272</v>
+        <v>41.763240129743</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.470266721235433</v>
+        <v>7.15688466855406</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>54.55114592420329</v>
+        <v>53.56102495458834</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>72.68356155228031</v>
+        <v>71.34780690432592</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.61539838277274</v>
+        <v>51.33842352223191</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.71071995214353</v>
+        <v>63.30024950753172</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>70.33883566286387</v>
+        <v>69.95415924737294</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.308576213770436</v>
+        <v>8.934370697742249</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>67.28820068734854</v>
+        <v>65.38483347938654</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>73.82071734313462</v>
+        <v>72.26549081884912</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.4905354743323</v>
+        <v>10.78214891750275</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.94938417800478</v>
+        <v>44.34294267622097</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.06040490107595</v>
+        <v>48.37248628803686</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.686641699602148</v>
+        <v>6.818707229967785</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.77699467751806</v>
+        <v>41.88219200644397</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.19992382521924</v>
+        <v>51.1333122571499</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.691136722135099</v>
+        <v>6.613530516565586</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68.23458890654206</v>
+        <v>67.36183104768141</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.84931557261925</v>
+        <v>75.67926834233158</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>74.28484666527822</v>
+        <v>73.09599167525622</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.2352210889276</v>
+        <v>85.80595242756573</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>88.89090656698878</v>
+        <v>87.23117664771576</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.18736494025213</v>
+        <v>8.948712382912067</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>81.60662642618811</v>
+        <v>79.63490627736766</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>85.57454166815627</v>
+        <v>83.48724002644305</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.26983026322557</v>
+        <v>28.97460925587052</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.52211953675683</v>
+        <v>39.26302051018201</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.25841456188013</v>
+        <v>41.4353583989565</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.773145580915092</v>
+        <v>7.430811871234859</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.33831807354041</v>
+        <v>44.15237470464617</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.72769685215523</v>
+        <v>46.09984619574738</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.118453319909108</v>
+        <v>8.777144054288442</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>67.14884693250735</v>
+        <v>65.96302824961198</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.31401398556056</v>
+        <v>61.33286692518357</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55.75041370851544</v>
+        <v>55.49873924466765</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>69.50740502242334</v>
+        <v>68.21500124243424</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>67.43192781607416</v>
+        <v>66.66467211949234</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.59891510019599</v>
+        <v>25.88368401633977</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>59.24298813535648</v>
+        <v>56.95698101569674</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>61.77721032426207</v>
+        <v>58.77062675824439</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.68307905491434</v>
+        <v>26.06825851834805</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.93937835741283</v>
+        <v>42.03565048183016</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.1699114214274</v>
+        <v>43.93247821211435</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.400537599691461</v>
+        <v>7.262544950651865</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.07811963556166</v>
+        <v>39.04424373796805</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.61373200606078</v>
+        <v>43.19306930165396</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.609113710500488</v>
+        <v>8.418193051160234</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>63.75579355251898</v>
+        <v>62.67684826642801</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>73.35660800432782</v>
+        <v>72.01328293169848</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>56.60241967276197</v>
+        <v>56.45008302580779</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.63110512968819</v>
+        <v>67.30132163132224</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>70.24203594993611</v>
+        <v>69.95525220713807</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.50730338505894</v>
+        <v>26.60246220880667</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>68.43840134996722</v>
+        <v>67.39476119889547</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>72.03396550854393</v>
+        <v>70.36069132245336</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.59060301915012</v>
+        <v>31.24218560415925</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.18247148222227</v>
+        <v>48.44447577018438</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.17971858081994</v>
+        <v>47.61907191022009</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6.648369447385736</v>
+        <v>7.394955074598407</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>49.25965428476537</v>
+        <v>48.63630336050062</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.55867186882883</v>
+        <v>48.87114001808175</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.55014779070585</v>
+        <v>8.733097409959498</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>73.20658538128535</v>
+        <v>72.10968517459651</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>72.93167700739195</v>
+        <v>71.94619742476605</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>77.78141119811744</v>
+        <v>76.68083687761636</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.70029821207081</v>
+        <v>79.70168950044709</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.84348657978998</v>
+        <v>84.644206746595</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.73425383239447</v>
+        <v>32.15293833609593</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>82.38597581565134</v>
+        <v>80.86616416510732</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>82.70913438037235</v>
+        <v>81.24606064248621</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.11000607574232</v>
+        <v>16.36215599577299</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.58387183445458</v>
+        <v>19.86689355267612</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.96537268680771</v>
+        <v>20.16805839662931</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.687604587473093</v>
+        <v>7.232588547470112</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.75600316738163</v>
+        <v>19.65835665897895</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.78155670692875</v>
+        <v>21.29521702185213</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.945142414921907</v>
+        <v>10.7333924119642</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.51553054916023</v>
+        <v>27.74293457462129</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.73457589281771</v>
+        <v>27.99726565012315</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.3594622749267</v>
+        <v>27.54707030173851</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.62567757454357</v>
+        <v>29.7209909877222</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.05469676242316</v>
+        <v>34.38682198445151</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.90039414113599</v>
+        <v>62.32369431195563</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>66.47873607727348</v>
+        <v>65.47507064066542</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.87729423640342</v>
+        <v>62.87719541329823</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.07755772182073</v>
+        <v>13.39678421222424</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.44316319909822</v>
+        <v>35.28425211293061</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.57231584356003</v>
+        <v>41.45025191473085</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.412722110359844</v>
+        <v>6.697075376722395</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.91072135547004</v>
+        <v>34.37221003672167</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>50.18817299009299</v>
+        <v>48.61731495773664</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10.20436867512844</v>
+        <v>12.19835449529702</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.15492009631048</v>
+        <v>50.5967221857951</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>67.08202212614746</v>
+        <v>66.60276238267075</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.74608683339993</v>
+        <v>45.35920600412715</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.11390697001927</v>
+        <v>51.7281810441452</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>63.67215661134533</v>
+        <v>64.23217768514155</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13.48163237669529</v>
+        <v>13.83462891779159</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>59.82746719367066</v>
+        <v>58.94115571973375</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>67.24813509686828</v>
+        <v>66.3993119705473</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.68045591790727</v>
+        <v>25.80961274015359</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.52965625686463</v>
+        <v>43.21416298305417</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.75169569821323</v>
+        <v>48.5986560191683</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.798964283089163</v>
+        <v>9.315060245040701</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.17689543918997</v>
+        <v>39.67199762089708</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.23942738721158</v>
+        <v>49.68598732346933</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.22233753238151</v>
+        <v>16.46345464296731</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.76441157020729</v>
+        <v>61.00777637748222</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.94322443360078</v>
+        <v>71.28502088185618</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.17814696343784</v>
+        <v>62.67037198584511</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>72.52165711080299</v>
+        <v>71.0597303664339</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>83.4184919895944</v>
+        <v>82.70450291562196</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.0085606280802</v>
+        <v>33.73162974591785</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>76.2605672496282</v>
+        <v>74.70198400447154</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.0366451275691</v>
+        <v>80.00041168928047</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.094320873481</v>
+        <v>24.48688645209855</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.81935496732239</v>
+        <v>44.47363205338857</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>44.096776583416</v>
+        <v>42.42261463737992</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.282176402825751</v>
+        <v>7.894679261876281</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>49.79730159561396</v>
+        <v>48.43201951227952</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.66196944385078</v>
+        <v>50.62938482556843</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.870478153385378</v>
+        <v>10.58680159353973</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>73.44244215769957</v>
+        <v>74.06910322466572</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>67.07185656134683</v>
+        <v>66.20754265127495</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.28710251093838</v>
+        <v>57.23477039207467</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>69.35221054561154</v>
+        <v>69.31977549073032</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>73.02139221537016</v>
+        <v>72.68829111556239</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.16835714961897</v>
+        <v>19.06967286660235</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.172895389053515</v>
+        <v>8.122521653499241</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8.368024035679767</v>
+        <v>8.612167279438456</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.89740982280558</v>
+        <v>33.43263070290812</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>49.62118333464179</v>
+        <v>48.07906921892765</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>48.04198976595092</v>
+        <v>47.55079857161168</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.82694551542804</v>
+        <v>7.664269657422953</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>44.85746714217726</v>
+        <v>44.11826502373997</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.51054062244766</v>
+        <v>47.85445523068574</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9.005226705992822</v>
+        <v>10.35402437571396</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>69.56104676403086</v>
+        <v>69.1120660091581</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>71.49200647457414</v>
+        <v>70.71574797668897</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66.32552016680651</v>
+        <v>65.95725513416492</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>70.6932207782265</v>
+        <v>70.29267244292524</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>73.99909836516913</v>
+        <v>73.75586602005049</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.80252613489848</v>
+        <v>41.2793188388607</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>76.25629734861272</v>
+        <v>74.8490366713759</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>77.96525799903222</v>
+        <v>76.77675793733023</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.82716808275308</v>
+        <v>37.05624166723582</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>51.00159812426547</v>
+        <v>49.99185272766296</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.33526082750913</v>
+        <v>50.26916114635179</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>7.324970393186664</v>
+        <v>7.956636725352254</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.48030413554584</v>
+        <v>48.78736220750588</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>48.86084155436361</v>
+        <v>48.01819335059937</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.03388683587427</v>
+        <v>10.98740313590734</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.70968617410948</v>
+        <v>73.09340826739177</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>73.72040322977331</v>
+        <v>72.58484975435621</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>80.05284308147731</v>
+        <v>78.69751489575421</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>83.75518548100568</v>
+        <v>82.19337997222446</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>85.73533707009449</v>
+        <v>84.27869392950024</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>51.26681977164213</v>
+        <v>50.14304802919625</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>86.76255917101633</v>
+        <v>84.81301689499909</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>83.90882792069129</v>
+        <v>82.1863114888918</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.17230991915741</v>
+        <v>21.96899843521816</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.88802597769887</v>
+        <v>33.32740279257507</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.72630934299511</v>
+        <v>38.70923289785902</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.420557827188762</v>
+        <v>7.077835737180866</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.45172684244032</v>
+        <v>45.33609359653914</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>50.67966805528174</v>
+        <v>49.12061468296358</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7.755236809900598</v>
+        <v>8.841982209746686</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>72.15759047381374</v>
+        <v>70.43850307916807</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>67.97887337354885</v>
+        <v>66.26609860633937</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>60.70374382181081</v>
+        <v>60.23905951518641</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>66.97807654084026</v>
+        <v>67.24768395938518</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>68.61408597025172</v>
+        <v>69.04010834807013</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.96553531900037</v>
+        <v>16.68514091145553</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.742457874656267</v>
+        <v>7.464683430491718</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>6.332125591136236</v>
+        <v>7.081450729240672</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.20197221486191</v>
+        <v>25.74612007784714</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.76091791137932</v>
+        <v>47.28286560849939</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.00239644645323</v>
+        <v>49.43270087933822</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.469157547211758</v>
+        <v>7.295976476431154</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.38496084239944</v>
+        <v>42.46169885210323</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.96009846008977</v>
+        <v>50.37289189950954</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>7.978334812070322</v>
+        <v>8.626530272140119</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>70.08235118591875</v>
+        <v>68.75351116379335</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>74.07010878973014</v>
+        <v>73.12390052363901</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.60215845735692</v>
+        <v>55.55602137835268</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>69.28676661173039</v>
+        <v>68.67240472255321</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>75.65810132352975</v>
+        <v>75.11504973127361</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.19277198880085</v>
+        <v>24.88107734348966</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>76.80170974428185</v>
+        <v>75.43058331468259</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>80.24328111033213</v>
+        <v>78.46889618075707</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.40499069386873</v>
+        <v>27.17032442107926</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.3156425057232</v>
+        <v>48.47715164387946</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.78886338535526</v>
+        <v>50.54554880873243</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>6.55367447768387</v>
+        <v>7.428368601537919</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.76693129159514</v>
+        <v>44.62771173756478</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.28855580410806</v>
+        <v>47.52767885075835</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.978219426694714</v>
+        <v>8.958023752252419</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>73.06410459932545</v>
+        <v>71.78994732685733</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>73.605560867283</v>
+        <v>72.22435376390499</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.70630375916269</v>
+        <v>74.60703405046949</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>81.67275447474616</v>
+        <v>80.2677691245475</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>84.70937317116297</v>
+        <v>82.80112107597012</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.95529262064635</v>
+        <v>24.2244729907313</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>80.946875054537</v>
+        <v>79.72008375520397</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>83.47367547359208</v>
+        <v>82.18846666425718</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.40193382765919</v>
+        <v>11.60664362007716</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.60935222584727</v>
+        <v>12.86757422271097</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.63096225576861</v>
+        <v>12.89112368403542</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>5.959503151346038</v>
+        <v>6.514669029104851</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.16377178223361</v>
+        <v>16.78098135729739</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.52687350198667</v>
+        <v>18.67107141653097</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.78580469749107</v>
+        <v>7.611998145962676</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.01390297315447</v>
+        <v>20.34952514344369</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.62595971691126</v>
+        <v>22.17296312219162</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.37534434763626</v>
+        <v>26.14531485622648</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.57093186847558</v>
+        <v>31.90977498882744</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.82995959880757</v>
+        <v>34.34226096627816</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.66122681212267</v>
+        <v>12.7488167436797</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.14132548916492</v>
+        <v>18.24934227957549</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.341197239554</v>
+        <v>19.0345797355677</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.48068600409801</v>
+        <v>13.07113880589918</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.49066391505504</v>
+        <v>30.29192560565681</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.81982466016823</v>
+        <v>36.09952522727884</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.186904577679051</v>
+        <v>6.996452152107754</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.51185420055717</v>
+        <v>29.23046349171926</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.48573400582448</v>
+        <v>38.33633373097945</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.258051853511972</v>
+        <v>7.38299902965505</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.50624819872264</v>
+        <v>42.94802914643188</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>52.97523688220299</v>
+        <v>53.14519320456795</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.54169980086512</v>
+        <v>41.5767928978779</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.76941494455569</v>
+        <v>49.11656560268262</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.65059080959086</v>
+        <v>51.89156481863857</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13.50836276991841</v>
+        <v>13.78625441844387</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.51961741096919</v>
+        <v>49.26040878708252</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.91299311365997</v>
+        <v>51.13182516551117</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.98582455239476</v>
+        <v>20.08484166137959</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.80844790520823</v>
+        <v>34.37269176717446</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.202649655265</v>
+        <v>44.21277499540118</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6.837616955592367</v>
+        <v>7.443542095374262</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.23193877535017</v>
+        <v>41.54587629619942</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.15229125681444</v>
+        <v>48.75076858654014</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>9.119309243276206</v>
+        <v>9.921656977668011</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>63.13045813977374</v>
+        <v>61.92391271623292</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.2463588112944</v>
+        <v>64.67957176189287</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>65.55163847073484</v>
+        <v>65.23782350192006</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>73.91151574732318</v>
+        <v>73.44239960239963</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.5681354263719</v>
+        <v>75.57195891931933</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.11835540725575</v>
+        <v>29.26606675964424</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>74.25180382027405</v>
+        <v>73.10679619317327</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>80.43706970764536</v>
+        <v>79.44543092802898</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>11.0398240891699</v>
+        <v>11.42398864757092</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.90071014760234</v>
+        <v>13.72273990943003</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>11.8296806265852</v>
+        <v>12.84438928731836</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5.479043324364334</v>
+        <v>5.879515341289189</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>13.38171038881197</v>
+        <v>13.54488699043344</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.92437387184759</v>
+        <v>17.91599262205602</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>6.742327783593758</v>
+        <v>7.619405455999864</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.39345252998873</v>
+        <v>16.2311229274367</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.51572796357051</v>
+        <v>15.26055722193971</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.29427016060872</v>
+        <v>16.98991717478659</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>17.15826752727417</v>
+        <v>17.85225991046943</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.27859010001962</v>
+        <v>17.02786994393907</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.08187912533537</v>
+        <v>12.41672428469054</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.89672461814267</v>
+        <v>14.89456728268529</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.44763699976442</v>
+        <v>14.44957604628959</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.544743359805846</v>
+        <v>6.328598671291491</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>9.865707461724224</v>
+        <v>10.55382436220362</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.11399371470195</v>
+        <v>14.08268819926639</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>4.055786000350423</v>
+        <v>5.148479335888297</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>9.559869756647348</v>
+        <v>10.13179967735191</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.37879371972667</v>
+        <v>15.47727924078982</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>3.779077240016047</v>
+        <v>5.049285028898929</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>13.17266448206802</v>
+        <v>13.80984718120432</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.92289049824333</v>
+        <v>26.4347450031527</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.64863395505735</v>
+        <v>11.20186940693771</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.64337525925889</v>
+        <v>25.44761437432865</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.56622129660212</v>
+        <v>36.68703383394386</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.359457481488896</v>
+        <v>6.165279135350168</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.7853104331409</v>
+        <v>18.17883099838241</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.85791767745832</v>
+        <v>15.64453474961289</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5.843400683930962</v>
+        <v>6.509155461033039</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.85778134387072</v>
+        <v>14.93838576000713</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.34140740720822</v>
+        <v>35.21273803720061</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.277348729526487</v>
+        <v>5.175922858229583</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.04651397235886</v>
+        <v>15.28966133280113</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.88372095476276</v>
+        <v>35.78512861153951</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.823318223797692</v>
+        <v>5.061538663863587</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>21.99360765148161</v>
+        <v>22.25205198912396</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>61.85883139662492</v>
+        <v>61.4317995791998</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.12018096611189</v>
+        <v>18.03780257399902</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.92408956986641</v>
+        <v>47.60600386397423</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>72.25652119393951</v>
+        <v>71.20183454001361</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>6.558647097725775</v>
+        <v>6.164927997188808</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.34994492216362</v>
+        <v>33.63835760887403</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>44.56226321040448</v>
+        <v>43.96739552120132</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.35718057389314</v>
+        <v>17.75524121304642</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.32450715732411</v>
+        <v>20.88679592412913</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.42054844640874</v>
+        <v>36.28476328635221</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.793000218303984</v>
+        <v>7.853962614964743</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>43.59802575810049</v>
+        <v>43.55680584371913</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.7411879404414</v>
+        <v>45.67470706345966</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.95744341270919</v>
+        <v>12.86797987385297</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>62.84229342788863</v>
+        <v>62.10474624667677</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>64.08307634382308</v>
+        <v>63.65171213110605</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.18321914316315</v>
+        <v>60.25170258987868</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>68.8846001890618</v>
+        <v>68.4545301900452</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>67.2342297543434</v>
+        <v>67.22436760780178</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.26164587140172</v>
+        <v>33.73257868961069</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>53.97351651787643</v>
+        <v>53.00038098261462</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>69.59816752141198</v>
+        <v>68.19638911543848</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.53858224639338</v>
+        <v>21.79117227444036</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.20771677871578</v>
+        <v>34.3260219404785</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.07542851975087</v>
+        <v>36.46037322784944</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.631378493026446</v>
+        <v>6.886963531814562</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.95380120495962</v>
+        <v>35.34809209683721</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.98920963607948</v>
+        <v>37.3104379288745</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.62787855384709</v>
+        <v>9.100990108684197</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.55041083666617</v>
+        <v>51.7628946068871</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.38416502058253</v>
+        <v>55.29014917853529</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.98379146704342</v>
+        <v>45.58861075508605</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.2598591128539</v>
+        <v>51.32991650314059</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>52.47631995873066</v>
+        <v>52.65251440330591</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.12961443537097</v>
+        <v>28.3481202201169</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>56.83716935964452</v>
+        <v>56.10409387339436</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>56.83363958664846</v>
+        <v>56.49115645420564</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.73817574758485</v>
+        <v>23.275675891216</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.44621553691945</v>
+        <v>35.36044558287452</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.28219812501107</v>
+        <v>43.87352473621507</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6.872876199409014</v>
+        <v>7.690528406741223</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.50065185615174</v>
+        <v>46.38177762263091</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>48.57043989495795</v>
+        <v>48.22871564041203</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.062248821441532</v>
+        <v>9.986617496732901</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>67.57477666836942</v>
+        <v>66.91231246523172</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.27195285182414</v>
+        <v>68.47241214508675</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>69.12269901933431</v>
+        <v>68.74229257670703</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.50088222687364</v>
+        <v>74.71670314091354</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>76.56528634682576</v>
+        <v>75.91710417832388</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.33703426769447</v>
+        <v>31.74185236374771</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>73.3623164848994</v>
+        <v>72.73889230228144</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>79.1164247980351</v>
+        <v>78.38756908459959</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.92117783319375</v>
+        <v>11.50467187301414</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.93189868771468</v>
+        <v>12.61235330653659</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.91470851849052</v>
+        <v>14.06048043309238</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>5.018438576220543</v>
+        <v>6.033882354981227</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.21159235151375</v>
+        <v>12.05043536409813</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.60267782666729</v>
+        <v>15.27363772134182</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6.176167858317449</v>
+        <v>7.297547871769343</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.48610504348038</v>
+        <v>18.06938525813251</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.44449606732912</v>
+        <v>19.1640799694778</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.24436255363502</v>
+        <v>18.17197867436646</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.20894934887714</v>
+        <v>21.87314241912848</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.0385906536839</v>
+        <v>23.81889844137433</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>9.448656295118724</v>
+        <v>10.12519252070916</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>15.96449706391843</v>
+        <v>16.3568698167755</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>18.20690610649171</v>
+        <v>18.6521830222975</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.885112867363688</v>
+        <v>8.460775272955996</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.5393248702519</v>
+        <v>20.50155427041845</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.53788419473531</v>
+        <v>27.22691474069203</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>5.359384475109813</v>
+        <v>6.165188261670671</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.3023430846393</v>
+        <v>19.37031658342924</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.27686578795159</v>
+        <v>31.71002156519363</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>5.096403482960692</v>
+        <v>6.255062713184977</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.3437059905671</v>
+        <v>31.22332889879695</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>43.71782239906399</v>
+        <v>44.33225397869239</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.14753533285705</v>
+        <v>24.83793172956368</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.82535043995156</v>
+        <v>34.25937848758537</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.37240170601009</v>
+        <v>39.15733662642753</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.31945474367528</v>
+        <v>7.864418862641756</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.7493826150931</v>
+        <v>32.51302082237859</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.79330442198829</v>
+        <v>39.82082027707843</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.99449013236762</v>
+        <v>15.31238872483753</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.75508486831497</v>
+        <v>29.14977042273634</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.34502835546588</v>
+        <v>42.39546458249844</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>8.18932583088753</v>
+        <v>8.913234321998534</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.83823893610145</v>
+        <v>27.42497431247192</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.73662627677935</v>
+        <v>40.60282394355833</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.49235309997255</v>
+        <v>14.31069038151869</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>45.31699418464272</v>
+        <v>44.39097761914751</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>59.17237917122087</v>
+        <v>59.20388657979981</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>47.10719751654148</v>
+        <v>46.32466987883496</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>55.36599732656259</v>
+        <v>57.7534954560071</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>74.78197212851271</v>
+        <v>74.13676058568332</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.30189602816656</v>
+        <v>21.99045433164717</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>55.32892403878081</v>
+        <v>53.90057346348424</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>66.15099268994923</v>
+        <v>64.99223902867526</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.359437881247999</v>
+        <v>6.164968477245885</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.154170077061988</v>
+        <v>6.115302113506971</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.406628756861373</v>
+        <v>10.25209825905804</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.058477279372049</v>
+        <v>5.156777488458143</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>6.387267399770192</v>
+        <v>7.224266097960417</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.57099961356911</v>
+        <v>11.09192301916491</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.062714576177296</v>
+        <v>4.851627790052962</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>6.273956790668503</v>
+        <v>7.721820840580776</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.98802069300915</v>
+        <v>12.94965901970652</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.511424422429403</v>
+        <v>7.515450523078933</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8.652055373570455</v>
+        <v>9.722011702014626</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.08778121743692</v>
+        <v>16.82910189790329</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.359776401171647</v>
+        <v>6.165098180040918</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.197025260786443</v>
+        <v>6.899858939960641</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.03858673800859</v>
+        <v>12.83934144005214</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.21601131014323</v>
+        <v>21.64554715648965</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.40412866985669</v>
+        <v>34.87698675342807</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.22335378489363</v>
+        <v>35.6518050783661</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.362011420620789</v>
+        <v>7.235610616527211</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.31084261161448</v>
+        <v>34.24725543330955</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.0257052391557</v>
+        <v>37.74990624587528</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.938562272982391</v>
+        <v>8.219852308578925</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.91985650678131</v>
+        <v>50.96130739068016</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.06758510950107</v>
+        <v>55.0683872419644</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.68901567134497</v>
+        <v>49.15472779750908</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>50.80288343119408</v>
+        <v>50.90548057574448</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.96939950048247</v>
+        <v>53.14485055375339</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.57014760758566</v>
+        <v>23.07107895576817</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>55.16986823803957</v>
+        <v>53.80456445857394</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.89208893470752</v>
+        <v>55.57436685856998</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.58084032459302</v>
+        <v>24.12345010580076</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.16246056694322</v>
+        <v>39.32441075681292</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.68685375394084</v>
+        <v>47.35965408201921</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>6.657761623081935</v>
+        <v>7.453981376782718</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.60213947543938</v>
+        <v>46.87866128221414</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.65780809585801</v>
+        <v>50.80086994850735</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>7.222783347695341</v>
+        <v>8.460377470632526</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>67.62907466517882</v>
+        <v>67.21347524793936</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.72067729938681</v>
+        <v>68.18881181114257</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.8231596534898</v>
+        <v>73.93983240199705</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>80.81745987841964</v>
+        <v>79.55810424910099</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.23877984587827</v>
+        <v>80.974323678826</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.74182429411281</v>
+        <v>25.34782230862813</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.75093381060069</v>
+        <v>78.31246240710649</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.93148099614484</v>
+        <v>76.8507319569612</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.23521321378848</v>
+        <v>14.8674356040264</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.38200150523575</v>
+        <v>17.18318491302054</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.64845798058657</v>
+        <v>17.20512143215025</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.15572520830192</v>
+        <v>6.222136538773309</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.68924093199412</v>
+        <v>17.09035015608843</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.4274284834133</v>
+        <v>20.06992655796878</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>6.231367694291887</v>
+        <v>7.701567286588269</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.02906007506918</v>
+        <v>21.23769194522665</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.22858116700853</v>
+        <v>25.34185446169858</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.33113047459243</v>
+        <v>21.42633535965173</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.63874515645239</v>
+        <v>28.18197732160201</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.99980870215643</v>
+        <v>29.08678866625567</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.81844870384052</v>
+        <v>13.80657179161817</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.67992259934807</v>
+        <v>20.83174701307706</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.13068230852861</v>
+        <v>23.23272190921683</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>5.658173089690798</v>
+        <v>6.501410733402583</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>11.73042680138974</v>
+        <v>12.81844120971642</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.46259027735816</v>
+        <v>22.12063137157963</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>4.238699367280557</v>
+        <v>5.176411094193302</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>9.664666335470042</v>
+        <v>10.57766880158101</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.84414597442822</v>
+        <v>23.55808132705097</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>4.210264194274522</v>
+        <v>5.171276618367418</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>14.62752620626695</v>
+        <v>15.0734632749122</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.07908458899475</v>
+        <v>35.46149178694377</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.67463190551</v>
+        <v>13.32736619449286</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.59208348865209</v>
+        <v>23.88944956385395</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.14558969081085</v>
+        <v>31.86759801149216</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.359848786419498</v>
+        <v>6.165116916525264</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.00920307750983</v>
+        <v>23.08168056702825</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.41780050749839</v>
+        <v>30.56112518167271</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.87130448053481</v>
+        <v>19.65823656642812</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.05179039203729</v>
+        <v>28.46712375090238</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.98647511639415</v>
+        <v>37.49919713241808</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.77279462613517</v>
+        <v>6.78302728322339</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.23263656110259</v>
+        <v>24.86642832654968</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.18410094267633</v>
+        <v>31.35780893478629</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.82556050523294</v>
+        <v>12.6244137148818</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.39216057996533</v>
+        <v>42.30783203387337</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>53.13413778482056</v>
+        <v>53.06969210582464</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.17092159342496</v>
+        <v>45.98918104761815</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.24163582690206</v>
+        <v>51.55978807601497</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.34351614229465</v>
+        <v>62.41979227039438</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.45719486680627</v>
+        <v>26.09816216984129</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>46.94458897545699</v>
+        <v>46.71294918416309</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.06330225761938</v>
+        <v>51.20398519690886</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.986547606972014</v>
+        <v>6.863416945377807</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>8.65091034659876</v>
+        <v>9.533025193618357</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.305119064136388</v>
+        <v>9.260719175289701</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.181076404941386</v>
+        <v>5.290749480192151</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.18913285889942</v>
+        <v>8.186990803034643</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>9.601171619078105</v>
+        <v>10.38624112841596</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.339690642616439</v>
+        <v>6.019549742781624</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.023288020040685</v>
+        <v>9.575593449718426</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.10856514484539</v>
+        <v>12.16354862407711</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.176016507695117</v>
+        <v>7.481728463185238</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.772778690926835</v>
+        <v>8.410391768063469</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.45658271492426</v>
+        <v>13.02095637090178</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.063929709022943</v>
+        <v>6.509761092948271</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.895962247245503</v>
+        <v>8.892739301423379</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>10.78512523580495</v>
+        <v>11.46637489333076</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.417117215099939</v>
+        <v>6.16634362848804</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.140076507730722</v>
+        <v>8.048741439395091</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.030991059734891</v>
+        <v>8.950466613252985</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.348748365830403</v>
+        <v>5.17597074786142</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.329815100355283</v>
+        <v>7.10074729595329</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.615220786858533</v>
+        <v>8.486717908879168</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.363964445546056</v>
+        <v>5.4019422579055</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>6.793738721196842</v>
+        <v>7.614551036709663</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.529148958758924</v>
+        <v>10.71412004762142</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.38339226432112</v>
+        <v>7.075779935775721</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>8.658362072387568</v>
+        <v>9.159607981142077</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.679805850768059</v>
+        <v>10.0031188720454</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>4.384845678668256</v>
+        <v>5.176110733009697</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>7.215873365808509</v>
+        <v>7.951903617852537</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.410535728905447</v>
+        <v>9.215582919111316</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.22009714145195</v>
+        <v>22.57897596134132</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.45861765853211</v>
+        <v>24.94906767387668</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.82356153054382</v>
+        <v>26.33232232684855</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>6.378031477650225</v>
+        <v>7.193028941243753</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.63722375942741</v>
+        <v>19.9976210432532</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.53080073659014</v>
+        <v>22.60282403950656</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.98226070286314</v>
+        <v>14.63997915513695</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.8440842564459</v>
+        <v>30.12608534465089</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.76036948732026</v>
+        <v>33.12697474717131</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.58313692679465</v>
+        <v>37.61299761927028</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>40.29137056413481</v>
+        <v>40.16352995703154</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.60564693227941</v>
+        <v>42.62979698059092</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.1547991264691</v>
+        <v>26.74170115326837</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.5609668146087</v>
+        <v>30.85185214845693</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.48415745396923</v>
+        <v>35.70245930210486</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.06755032807321</v>
+        <v>18.66872116433462</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.02273923677642</v>
+        <v>26.95251693305708</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.06524584032907</v>
+        <v>34.77793448810165</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.848901617326646</v>
+        <v>6.860475292911634</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.74306270909237</v>
+        <v>23.43918678954606</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.29825205908341</v>
+        <v>28.72352172964605</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.896595177518734</v>
+        <v>9.280823968813646</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.3976341021277</v>
+        <v>39.56185066817535</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.5466144168595</v>
+        <v>46.96854201275168</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.27574459200653</v>
+        <v>37.9093784887152</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.26048682701307</v>
+        <v>45.56309065832868</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>49.9539669966119</v>
+        <v>50.96087705320466</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.47154140195858</v>
+        <v>29.35739637424031</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>49.63354680726103</v>
+        <v>50.89202310889678</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>62.31159289962962</v>
+        <v>63.24399436576461</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.88886797910547</v>
+        <v>16.51719148723171</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.51115070783873</v>
+        <v>26.07082673854299</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.4325448735516</v>
+        <v>30.96798527026749</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>4.690999381030405</v>
+        <v>5.728241748360187</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.29429062434883</v>
+        <v>16.94017169800826</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.54280329877535</v>
+        <v>22.10700724655474</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>6.202605286948465</v>
+        <v>7.582203519007521</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.54864704475495</v>
+        <v>31.35163968518063</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.90818315541885</v>
+        <v>35.74782600232278</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.54015776493121</v>
+        <v>29.4612634560707</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.88237346329986</v>
+        <v>37.44273997720465</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.04023076417694</v>
+        <v>37.06794897276539</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.9513222779972</v>
+        <v>21.83328600272355</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.74029653040526</v>
+        <v>42.37971345989897</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.30951541901542</v>
+        <v>46.78750391096803</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.56093523807569</v>
+        <v>24.70262744295149</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.92783751477519</v>
+        <v>35.17442685588417</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.95123074029262</v>
+        <v>45.86756699918426</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.664435608387507</v>
+        <v>7.018245853566519</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.48680079683569</v>
+        <v>32.50743158991245</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.63850792397988</v>
+        <v>36.96274464716589</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.34348837328287</v>
+        <v>11.66246297227388</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.88929608139654</v>
+        <v>54.854503304695</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>58.65019327599801</v>
+        <v>58.61862531748715</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>63.70561188435538</v>
+        <v>63.80044103603143</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>69.60000695887679</v>
+        <v>69.37971412625298</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>74.40311430775029</v>
+        <v>74.08935893908026</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.16421753711483</v>
+        <v>31.24207520012414</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>58.97932631565538</v>
+        <v>59.64322736588751</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>68.07750375374182</v>
+        <v>68.27675732787065</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.322682246063</v>
+        <v>20.06511370050903</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.07018971960542</v>
+        <v>32.77345293668503</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.6478015113745</v>
+        <v>37.59988505755891</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.941424282496094</v>
+        <v>8.614058349399365</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.79239426875841</v>
+        <v>41.26746738171632</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.54603156173854</v>
+        <v>42.17744009703581</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.98552790949704</v>
+        <v>11.8820459222462</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>57.51366127691692</v>
+        <v>56.44498253903519</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>61.90908064910637</v>
+        <v>61.20900584831575</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>66.29088462989188</v>
+        <v>65.1454598843072</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>67.7774573965319</v>
+        <v>66.72012539106422</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>70.54193552047629</v>
+        <v>69.63860885212753</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.7267996920051</v>
+        <v>22.16201907895306</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>59.54629435631441</v>
+        <v>57.76187867541353</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>65.30307141434157</v>
+        <v>62.92298296427121</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>17.91745021681087</v>
+        <v>17.7562753270382</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.16942529431749</v>
+        <v>32.53139988677924</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.3235284491743</v>
+        <v>39.05576259670215</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>5.895638119024259</v>
+        <v>6.996105520982741</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.89778183379998</v>
+        <v>31.89996733570275</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.85767652012947</v>
+        <v>36.29381172117914</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.184664993279092</v>
+        <v>7.454141126774395</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.89215081440869</v>
+        <v>47.75733511729399</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>57.89961933825593</v>
+        <v>57.41410050391708</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.85847933852649</v>
+        <v>44.95707419106463</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.42919796848373</v>
+        <v>52.21111907267288</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.01587371706503</v>
+        <v>50.03791077532409</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.53598277356375</v>
+        <v>17.27391576427132</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>54.53472256191164</v>
+        <v>53.8424516879814</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>62.36768769121191</v>
+        <v>61.02330555983509</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.02865683822127</v>
+        <v>19.05618334569471</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.98514058665087</v>
+        <v>36.02067503510865</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.97562415912545</v>
+        <v>42.57505261061388</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>6.082681145430314</v>
+        <v>7.079691928625063</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.02834850241042</v>
+        <v>39.64678778903688</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>44.33484363340971</v>
+        <v>44.18574968701114</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.264658823992342</v>
+        <v>7.473407446735347</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.45794758537346</v>
+        <v>55.93789166889285</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.97285905978931</v>
+        <v>64.69840269914909</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.42858705634791</v>
+        <v>63.81516050449306</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.56492394389667</v>
+        <v>70.75773782312802</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.51330810729904</v>
+        <v>78.60482094104374</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>18.71250738157172</v>
+        <v>18.30581446711496</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>68.14291752154291</v>
+        <v>66.54633654164664</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>75.0574907753219</v>
+        <v>73.91127619595471</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.29010695337451</v>
+        <v>21.688059143421</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.19027497011864</v>
+        <v>28.47321256039317</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.40824536952202</v>
+        <v>35.52479662981067</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6.471928890001717</v>
+        <v>7.459742811169658</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.52734773714695</v>
+        <v>42.28421293231172</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>44.37941175189287</v>
+        <v>44.25263550376086</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.896226819072194</v>
+        <v>11.13924220779252</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.48893459490918</v>
+        <v>57.60843416669375</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.87552827385956</v>
+        <v>59.54454561212768</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>61.86520798731822</v>
+        <v>58.16959241654444</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>62.57985544006056</v>
+        <v>58.7678639020829</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>66.96450391066899</v>
+        <v>63.01530160039222</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.48245472810503</v>
+        <v>23.35865672611794</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.10909004300056</v>
+        <v>42.58353617183398</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.62904425985292</v>
+        <v>64.88659895948459</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.92484617877618</v>
+        <v>23.80982128345067</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.32699948664141</v>
+        <v>36.30705044267285</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.31583065581678</v>
+        <v>37.25948127576281</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>5.616284241459049</v>
+        <v>6.620068007229211</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.71423696050067</v>
+        <v>34.48818884075381</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.62191176185878</v>
+        <v>36.68135753832701</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.493746533827672</v>
+        <v>7.484802471111092</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.16751057110373</v>
+        <v>49.56397368301715</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>58.7571261838378</v>
+        <v>57.53099756226145</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.91512886105667</v>
+        <v>50.041750547699</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.71600530526173</v>
+        <v>52.58193640609375</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>53.24477488651844</v>
+        <v>53.43828896874332</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.98815772588436</v>
+        <v>24.05963930316053</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>58.66825646787127</v>
+        <v>57.69019794555567</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>61.65706156341317</v>
+        <v>60.97263856011699</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.58197178008009</v>
+        <v>24.82833404240871</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.0070714450301</v>
+        <v>38.79528208872226</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.17282416402607</v>
+        <v>42.69909254159275</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.514367333670339</v>
+        <v>7.207633643476793</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.07132773364009</v>
+        <v>42.26722797469454</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.81632912875592</v>
+        <v>45.23941106384174</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.213034325908819</v>
+        <v>8.188210708667995</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.87706549996979</v>
+        <v>61.26982976349787</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>64.62648749661939</v>
+        <v>64.40487534383587</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>71.76824585242802</v>
+        <v>71.10123945336747</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.33092839952592</v>
+        <v>74.58105553128917</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.05137480474504</v>
+        <v>78.27481467360613</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.56952824650494</v>
+        <v>24.04386561631815</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.3883347355831</v>
+        <v>68.48263654213082</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.64715985785273</v>
+        <v>72.79489470537411</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.36689454848643</v>
+        <v>23.56169522255516</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.64982660950627</v>
+        <v>28.76061609154013</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.42283378665807</v>
+        <v>35.01841294677467</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.88438191570343</v>
+        <v>13.35025405218626</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.91582103115319</v>
+        <v>59.67773103833801</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.32908228327587</v>
+        <v>58.58336147883017</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.28209415231218</v>
+        <v>12.25391985366374</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>61.53623597026822</v>
+        <v>60.84399972516886</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.24008094128724</v>
+        <v>59.30460910588513</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>61.38363192693393</v>
+        <v>62.26148180755781</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>65.27724265934647</v>
+        <v>63.20843540305995</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>66.45006422551585</v>
+        <v>64.83443092161237</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.58046007649524</v>
+        <v>25.24215344956498</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.82272117954793</v>
+        <v>41.81217370798725</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>58.08771248300425</v>
+        <v>60.83164944236113</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.94453434667123</v>
+        <v>28.31089531090096</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.31720888510905</v>
+        <v>36.44757947981895</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.56817203773323</v>
+        <v>37.8749574671974</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>39.17660000561669</v>
+        <v>39.17108555861423</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>54.05222711141823</v>
+        <v>53.48330624951797</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>52.75195418292903</v>
+        <v>51.68181314132872</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.785871833592445</v>
+        <v>9.943765014173351</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>53.07369936029919</v>
+        <v>53.10177287382088</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.91252369832126</v>
+        <v>56.84226345602835</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>46.67272815615836</v>
+        <v>47.1628924801283</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>53.14814577645055</v>
+        <v>52.5600656369818</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.86697222722541</v>
+        <v>51.98982352462708</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.38535315669617</v>
+        <v>30.76613056675533</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.7141907887068</v>
+        <v>56.17664565582871</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>60.55602421141967</v>
+        <v>59.87610616629824</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.22708066969024</v>
+        <v>30.75739340625434</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.92327254875326</v>
+        <v>39.36865098707358</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.16195195105853</v>
+        <v>42.24469590989035</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.82049615841136</v>
+        <v>40.682175188557</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.5696772055887</v>
+        <v>60.04943570530952</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.23191146723755</v>
+        <v>57.02655580312151</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>8.700238475843829</v>
+        <v>10.09483216558077</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>65.33021304002477</v>
+        <v>64.45280600796215</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>63.49340562736799</v>
+        <v>63.33375517476374</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>76.94769274813146</v>
+        <v>77.56295404020767</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>77.02260693661243</v>
+        <v>75.98535506254379</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>80.94338643205896</v>
+        <v>79.76618000777601</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.18020776438433</v>
+        <v>36.12949377279491</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>72.89561767627271</v>
+        <v>71.67578744661344</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>75.97787623149156</v>
+        <v>75.20546380741541</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>14.44435203338206</v>
+        <v>15.08718235706642</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.18739681070689</v>
+        <v>30.09460991014904</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.29393662674728</v>
+        <v>35.09501424396855</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>5.138981634172151</v>
+        <v>6.093386985277316</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.57478612950143</v>
+        <v>26.89724804426501</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.0817202833377</v>
+        <v>41.71579789300819</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5.166554481875831</v>
+        <v>6.51597947122017</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>54.13590713324933</v>
+        <v>53.64308993774324</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>59.92953004302878</v>
+        <v>59.37223538883047</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.56480377964126</v>
+        <v>58.8726443148992</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>61.8486794426523</v>
+        <v>61.63413131248616</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>66.90012946856176</v>
+        <v>66.39261578678538</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>10.86021734886983</v>
+        <v>11.12217238002219</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.90505806862485</v>
+        <v>55.57226460616347</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>61.59438329357604</v>
+        <v>59.73917370792353</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.06576707344177</v>
+        <v>13.60039996994946</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.2860487690935</v>
+        <v>33.55088346103175</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.79195923225362</v>
+        <v>35.26785110997173</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>3.97989632524504</v>
+        <v>5.104559980775395</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.16523550140509</v>
+        <v>30.70740920517295</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.70748695796558</v>
+        <v>33.52051588573477</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.37144447361996</v>
+        <v>5.973533732599964</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.12460895073136</v>
+        <v>46.40676631459014</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>53.33396298081883</v>
+        <v>53.27636836211452</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.4121960346531</v>
+        <v>43.67636533817056</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.73854370078155</v>
+        <v>51.88539833237456</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>50.01812519768981</v>
+        <v>50.47442103470516</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.116105152781053</v>
+        <v>9.871471270961617</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>44.67061729398276</v>
+        <v>42.39288330073409</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>57.76796345130921</v>
+        <v>57.49928422214879</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.40761165659397</v>
+        <v>12.95811820503253</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.81801531013643</v>
+        <v>35.10917500698446</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.19161977089462</v>
+        <v>40.22895908253248</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4.606821206487361</v>
+        <v>5.656972878056983</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.68623730313564</v>
+        <v>36.86631743770456</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.27947649096841</v>
+        <v>43.41064363435198</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>5.201717586902664</v>
+        <v>6.440299178665985</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.19806544225636</v>
+        <v>52.98981244919604</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>61.68786540425089</v>
+        <v>61.4765548590507</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.33937910362252</v>
+        <v>62.35179784069548</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.2234046079339</v>
+        <v>69.2354501592138</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>77.67150829136207</v>
+        <v>76.96647710421956</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.128650468275382</v>
+        <v>6.656993774727525</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.84350276139607</v>
+        <v>64.56550785416286</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>73.97066243873709</v>
+        <v>73.19741320004644</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.83297041603047</v>
+        <v>16.16611759711085</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.06708500445849</v>
+        <v>18.43588869866583</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.91254143865543</v>
+        <v>17.64820326851697</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.418719412699168</v>
+        <v>7.05785347313563</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.71640618658186</v>
+        <v>18.95656714241272</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.01566941306325</v>
+        <v>20.19193254160333</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.53999051581904</v>
+        <v>11.6854988646476</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.36174869681413</v>
+        <v>25.8950557144431</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.73228412977268</v>
+        <v>28.95987600514124</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.86982956117862</v>
+        <v>26.03434720989802</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.67665331818192</v>
+        <v>29.77304039964041</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.37978524372087</v>
+        <v>33.5163029363405</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.68593474260113</v>
+        <v>19.59459440157913</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.18186147844964</v>
+        <v>23.12646749946026</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.12734430834532</v>
+        <v>25.12094136187555</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>11.60525673390901</v>
+        <v>12.25622432581017</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.2193890583076</v>
+        <v>28.02990575264695</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.10444163910078</v>
+        <v>35.01734104259937</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.350583969767627</v>
+        <v>7.059700259048569</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.06473458355729</v>
+        <v>28.15862120460882</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.10877795371859</v>
+        <v>37.60798167192686</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>6.915242677990975</v>
+        <v>7.688654940759527</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.76897101093797</v>
+        <v>41.45108614857568</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.71841590705297</v>
+        <v>56.02258302332635</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.03167834577596</v>
+        <v>40.30386066350914</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.62984533125621</v>
+        <v>46.35934859728925</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.00908246358787</v>
+        <v>52.90769550522297</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>11.00823372993914</v>
+        <v>11.26675629358795</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.01441447727274</v>
+        <v>45.26890121410172</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.37796901977178</v>
+        <v>54.65795789182195</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.7512862922334</v>
+        <v>18.15779824969977</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.84443398570235</v>
+        <v>35.84437325927693</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.01400521353298</v>
+        <v>43.72445967336436</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>6.941610709342772</v>
+        <v>7.633206026656037</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.75038079251134</v>
+        <v>36.40896409462095</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.18109714642905</v>
+        <v>45.99328436043267</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.85700867952225</v>
+        <v>11.68926437928491</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.72788754301035</v>
+        <v>52.16299219719088</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.86615043956996</v>
+        <v>66.12810500811285</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.74822251028844</v>
+        <v>53.89014929247105</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>57.69661079035465</v>
+        <v>57.8212800633731</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>76.61775987660084</v>
+        <v>75.50516653753726</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.09922183259408</v>
+        <v>21.59870952308449</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.10356780667603</v>
+        <v>52.77740155818921</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>71.10540992636979</v>
+        <v>70.52469953769659</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.32336991382168</v>
+        <v>16.28532245209096</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.8231624722475</v>
+        <v>19.37993484368149</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.03081102174374</v>
+        <v>21.35133703216886</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.880479111905828</v>
+        <v>6.672105546892869</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.53569187451445</v>
+        <v>21.47864874460018</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.14808263537947</v>
+        <v>24.20668271050679</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>8.408033762782129</v>
+        <v>10.09440102249835</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.95308418172689</v>
+        <v>34.23312510116298</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.3122544067588</v>
+        <v>35.37643301167711</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.70644178133687</v>
+        <v>35.5520978236177</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.94230171651465</v>
+        <v>40.9449561000657</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.19817643112858</v>
+        <v>45.07003756883432</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>18.04583544072056</v>
+        <v>18.38431052893718</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>39.47377307353729</v>
+        <v>40.47263078966012</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.14746789327136</v>
+        <v>44.66952380063483</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.388783572314431</v>
+        <v>8.739275999119361</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.71285952922184</v>
+        <v>19.36563642544506</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.5727227279552</v>
+        <v>35.01153524160564</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.832019886417349</v>
+        <v>6.238150007808581</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.54741773281561</v>
+        <v>15.2263972678147</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>48.79534774885612</v>
+        <v>50.86878123633271</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>5.250010080308222</v>
+        <v>6.888359607805501</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.98816671956919</v>
+        <v>27.77111483577048</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.22870422177911</v>
+        <v>53.39848751144522</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.6957617788404</v>
+        <v>29.20174001458325</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.73965393220112</v>
+        <v>40.45855026707781</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>53.9028865174692</v>
+        <v>54.14401210743795</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>7.784626487661946</v>
+        <v>8.604484034668381</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.28909118855736</v>
+        <v>42.5051200480786</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.18420383404528</v>
+        <v>54.66999778992613</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.78543895976679</v>
+        <v>16.42342692187652</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.54329352244046</v>
+        <v>29.65343847157676</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.01861040119319</v>
+        <v>38.86926580122799</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.337427327980816</v>
+        <v>6.681105599511753</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.42843143951941</v>
+        <v>21.4613739421621</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.18269455925691</v>
+        <v>42.40962322718199</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>5.909671891128301</v>
+        <v>7.34573952285065</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.15081908594087</v>
+        <v>36.99483877438193</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>61.07666102823708</v>
+        <v>60.67731105753555</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.33477965535338</v>
+        <v>56.80887316424442</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.92260007183847</v>
+        <v>57.07497317104031</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>75.16238867013539</v>
+        <v>74.88107453447898</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>11.8922627270071</v>
+        <v>12.27361707197621</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>44.40658400591766</v>
+        <v>41.77293299774002</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.92952713274614</v>
+        <v>67.62198211201766</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.09482537978366</v>
+        <v>22.81841379865195</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.81047650870827</v>
+        <v>29.75117505210657</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.65347408037807</v>
+        <v>34.37796517751665</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>7.293036629508226</v>
+        <v>8.050084795881606</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>45.93067378273384</v>
+        <v>45.67661168502252</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.3703661622874</v>
+        <v>43.9074153297549</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>11.35844194006228</v>
+        <v>13.14356971104149</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>61.39944232502245</v>
+        <v>61.0492977577186</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.86062125442203</v>
+        <v>59.48481557082781</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>58.68369367262265</v>
+        <v>56.99487603257833</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>61.99868603578106</v>
+        <v>61.9511805247482</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>65.26203108271193</v>
+        <v>65.2564646843619</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.39596467456853</v>
+        <v>30.79570350759556</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.10112590694956</v>
+        <v>41.25242125213747</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>66.97764919974964</v>
+        <v>65.47890294133799</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.955031488319</v>
+        <v>28.19422992931284</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.60427280908866</v>
+        <v>36.59906824033573</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.47141833462629</v>
+        <v>37.39374577908442</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.469292274794658</v>
+        <v>7.638771026513364</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.97822167111907</v>
+        <v>37.771549195775</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.24430108896847</v>
+        <v>37.42124714680465</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>7.590820747701841</v>
+        <v>8.828746280184106</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>54.16684378255745</v>
+        <v>53.74198080189689</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.58772472007004</v>
+        <v>55.24057114732507</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.58883386426913</v>
+        <v>51.78235913852279</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>53.63175612306676</v>
+        <v>53.80896902913901</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.01330708893163</v>
+        <v>55.43182998015007</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.5047446750395</v>
+        <v>28.55831857643438</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>57.28455652643572</v>
+        <v>57.02014305244248</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>57.91872662040927</v>
+        <v>57.39831325975656</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.38235266215725</v>
+        <v>27.3572539119035</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.78718781972989</v>
+        <v>37.85095032123431</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>41.02810484845439</v>
+        <v>41.06179286919642</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>7.042156520612171</v>
+        <v>8.05271390296177</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.01498409434316</v>
+        <v>44.85490526157326</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>43.12151110484167</v>
+        <v>43.26870222254547</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.530563917354979</v>
+        <v>8.803035433191042</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>64.99757224740299</v>
+        <v>64.5174329305858</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.58948582049227</v>
+        <v>65.95932189462818</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>73.5560179887561</v>
+        <v>72.33331979356902</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>73.72212427929372</v>
+        <v>72.80558630007754</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>75.07774771521278</v>
+        <v>74.47460022291656</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.97682476321595</v>
+        <v>30.60220907637503</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>66.92891056021776</v>
+        <v>66.38980933723776</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>71.35029429677331</v>
+        <v>70.6034059430101</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>14.72407464468927</v>
+        <v>14.93739934683443</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.85040943878756</v>
+        <v>31.88429572691744</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.19464101661781</v>
+        <v>33.62155977633808</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.106455978475172</v>
+        <v>7.02114207336173</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.55234430339227</v>
+        <v>36.45590079909427</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.93593915815781</v>
+        <v>41.6095005732115</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>5.606554587360634</v>
+        <v>7.095984830344477</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>54.0565835922533</v>
+        <v>53.58561165361427</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>57.97611931203188</v>
+        <v>57.26564298381457</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>54.91292926999002</v>
+        <v>55.52162636504416</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>64.10410681839096</v>
+        <v>63.36382698579422</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>62.18778299341285</v>
+        <v>61.63167693525799</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>10.37816759221116</v>
+        <v>10.74751342545328</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>54.74215612103735</v>
+        <v>53.59293276341171</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>59.99006622624213</v>
+        <v>58.37513714561479</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>12.63587375140146</v>
+        <v>13.30317324995722</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.92825422894935</v>
+        <v>33.55749784992867</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.84058490355494</v>
+        <v>35.09847712184401</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>4.305963570533237</v>
+        <v>5.51171157289366</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.31925899447968</v>
+        <v>30.69074146001586</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.62250371294177</v>
+        <v>34.24770085645343</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>4.534679216506742</v>
+        <v>5.918637405480904</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>44.49748209646662</v>
+        <v>45.07685315517399</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>53.2734224406725</v>
+        <v>53.49133730946983</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.23792506027574</v>
+        <v>46.85245345101054</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.09561991360894</v>
+        <v>51.38412257647789</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.74742604307014</v>
+        <v>54.02111721144617</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>10.05680538358344</v>
+        <v>10.66902208842805</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>55.10235060886917</v>
+        <v>54.67575938653867</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>56.4396046107364</v>
+        <v>56.13077173017842</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>12.17665412247157</v>
+        <v>12.72182025039788</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.89433223598365</v>
+        <v>34.3730310690419</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.71767485604678</v>
+        <v>40.67042708532271</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.284687856249601</v>
+        <v>6.282476790861899</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.22524002700733</v>
+        <v>36.40863044308387</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.66769310821648</v>
+        <v>42.61890279009587</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>5.232758348348987</v>
+        <v>6.514262131989295</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.92309406139724</v>
+        <v>50.18154362475573</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>63.52970115157585</v>
+        <v>63.35065513240654</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.18662492604405</v>
+        <v>57.92877723982794</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.38846747025994</v>
+        <v>64.72979448814678</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>75.92713014249946</v>
+        <v>75.32391672153062</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>9.475216971476939</v>
+        <v>10.10348735894743</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>57.11753624765946</v>
+        <v>57.06903905914181</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>69.62237899825442</v>
+        <v>69.28961381150967</v>
       </c>
     </row>
   </sheetData>
